--- a/nhsrc/kayakalp/Kayakalp-PHC-23rd-August-2016.xlsx
+++ b/nhsrc/kayakalp/Kayakalp-PHC-23rd-August-2016.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Kalakalp" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Kayakalp" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Kalakalp!$A$1:$M$207</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Kalakalp!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Kayakalp!$A$1:$M$207</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Kayakalp!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="page183" vbProcedure="false">kalakalp!#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="page185" vbProcedure="false">kalakalp!#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="page187" vbProcedure="false">kalakalp!#ref!</definedName>
@@ -21,14 +21,20 @@
     <definedName function="false" hidden="false" localSheetId="0" name="page193" vbProcedure="false">kalakalp!#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="page195" vbProcedure="false">kalakalp!#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="page197" vbProcedure="false">kalakalp!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="page199" vbProcedure="false">Kalakalp!$A$188</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="page199" vbProcedure="false">Kayakalp!$A$188</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="page201" vbProcedure="false">kalakalp!#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="page203" vbProcedure="false">kalakalp!#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="page205" vbProcedure="false">kalakalp!#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="page207" vbProcedure="false">kalakalp!#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="page209" vbProcedure="false">kalakalp!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Kalakalp!$A$1:$M$207</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Kalakalp!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Kayakalp!$A$1:$M$207</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Kayakalp!$A$1:$M$207</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Kayakalp!$A$1:$M$207</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Kayakalp!$A$1:$M$207</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Kayakalp!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">Kayakalp!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">Kayakalp!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">Kayakalp!$1:$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="576">
   <si>
     <t xml:space="preserve">Ref. No.</t>
   </si>
@@ -60,13 +66,10 @@
     <t xml:space="preserve">Remarks</t>
   </si>
   <si>
-    <t xml:space="preserve">A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHC UPKEEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1</t>
+    <t xml:space="preserve">Area of Concern – A PHC Upkeep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard A1</t>
   </si>
   <si>
     <t xml:space="preserve">Pest &amp; Animal Control</t>
@@ -112,7 +115,7 @@
 f. Availability of adequate stock of Mosquito nets( If Applicable)           </t>
   </si>
   <si>
-    <t xml:space="preserve">A2</t>
+    <t xml:space="preserve">Standard A2</t>
   </si>
   <si>
     <t xml:space="preserve">Landscaping &amp; Gardening</t>
@@ -152,7 +155,7 @@
     <t xml:space="preserve">Check if the facility maintains a herbal garden for the medicinal plants</t>
   </si>
   <si>
-    <t xml:space="preserve">A3</t>
+    <t xml:space="preserve">Standard A3</t>
   </si>
   <si>
     <t xml:space="preserve">Maintenance of Open Areas</t>
@@ -186,7 +189,7 @@
 No thoroughfare / general traffic in PHC premises etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">A4</t>
+    <t xml:space="preserve">Standard A4</t>
   </si>
   <si>
     <t xml:space="preserve">PHC Appearance</t>
@@ -221,7 +224,7 @@
     <t xml:space="preserve">All signage's (directional &amp; departmental) are in local language and follow uniform colour scheme.</t>
   </si>
   <si>
-    <t xml:space="preserve">A5</t>
+    <t xml:space="preserve">Standard A5</t>
   </si>
   <si>
     <t xml:space="preserve">Infrastructure Maintenance</t>
@@ -249,7 +252,7 @@
     <t xml:space="preserve">Check that there is a proper boundary wall of adequate height without any breach. The Wall is painted in uniform colour</t>
   </si>
   <si>
-    <t xml:space="preserve">A.5.3</t>
+    <t xml:space="preserve">A5.3</t>
   </si>
   <si>
     <t xml:space="preserve">PHC has adequate facility for parking of vehicles</t>
@@ -258,7 +261,7 @@
     <t xml:space="preserve">Check that there is a demarcated space for parking of the vehicles as well as for the Ambulances and vehicles are parked systematically</t>
   </si>
   <si>
-    <t xml:space="preserve">A6</t>
+    <t xml:space="preserve">Standard A6</t>
   </si>
   <si>
     <t xml:space="preserve">Illumination</t>
@@ -291,7 +294,7 @@
     <t xml:space="preserve">Check that PHC uses energy efficient bulb like CFL or LED for lighting purpose within the PHC Premises</t>
   </si>
   <si>
-    <t xml:space="preserve">A7</t>
+    <t xml:space="preserve">Standard A7</t>
   </si>
   <si>
     <t xml:space="preserve">Maintenance of Furniture &amp; Fixture</t>
@@ -325,7 +328,7 @@
     <t xml:space="preserve">Check  the condition of furniture at nursing station, duty room, office, etc. The furniture is not broken, painted/polished and clean.</t>
   </si>
   <si>
-    <t xml:space="preserve">A8</t>
+    <t xml:space="preserve">Standard A8</t>
   </si>
   <si>
     <t xml:space="preserve">Removal of Junk Material</t>
@@ -362,7 +365,7 @@
     <t xml:space="preserve">Check for availability of a demarcated &amp; secured space for collecting and storing the junk material before its disposal</t>
   </si>
   <si>
-    <t xml:space="preserve">A9</t>
+    <t xml:space="preserve">Standard A9</t>
   </si>
   <si>
     <t xml:space="preserve">Water Conservation</t>
@@ -399,7 +402,7 @@
     <t xml:space="preserve">If the such system is available, please check its functionality</t>
   </si>
   <si>
-    <t xml:space="preserve">A10</t>
+    <t xml:space="preserve">Standard A10</t>
   </si>
   <si>
     <t xml:space="preserve">Work Place Management</t>
@@ -433,13 +436,10 @@
     <t xml:space="preserve">Check that drugs, instruments, records, etc. are labelled for facilitating easy identification.</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanitation &amp; Hygiene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1</t>
+    <t xml:space="preserve">Area of Concern – B Sanitation &amp; Hygiene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard B1</t>
   </si>
   <si>
     <t xml:space="preserve">Cleanliness of Circulation Area</t>
@@ -475,7 +475,7 @@
 Check the floors and walls for cracks, uneven or any other defects which may adversely impact the cleaning procedure</t>
   </si>
   <si>
-    <t xml:space="preserve">B2</t>
+    <t xml:space="preserve">Standard B2</t>
   </si>
   <si>
     <t xml:space="preserve">Cleanliness of Wards</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">B2.3</t>
   </si>
   <si>
-    <t xml:space="preserve">B3</t>
+    <t xml:space="preserve">Standard B3</t>
   </si>
   <si>
     <t xml:space="preserve">Cleanliness of Procedure Areas</t>
@@ -536,7 +536,7 @@
 Check the floors and walls for cracks, uneven or any other defects which may affect cleaning procedure</t>
   </si>
   <si>
-    <t xml:space="preserve">B4</t>
+    <t xml:space="preserve">Standard B4</t>
   </si>
   <si>
     <t xml:space="preserve">Cleanliness of Ambulatory &amp; Diagnostic Areas</t>
@@ -568,7 +568,7 @@
     <t xml:space="preserve">Surfaces are conducive of effective cleaning</t>
   </si>
   <si>
-    <t xml:space="preserve">B5</t>
+    <t xml:space="preserve">Standard B5</t>
   </si>
   <si>
     <t xml:space="preserve">Cleanliness of Auxiliary Areas</t>
@@ -600,7 +600,7 @@
     <t xml:space="preserve">Check if surfaces are smooth enough for cleaning check floors and walls for cracks, uneven or any other defects which may affect cleaning procedure</t>
   </si>
   <si>
-    <t xml:space="preserve">B6</t>
+    <t xml:space="preserve">Standard B6</t>
   </si>
   <si>
     <t xml:space="preserve">Cleanliness of Toilets</t>
@@ -633,7 +633,7 @@
     <t xml:space="preserve">Please operate cistern and water taps</t>
   </si>
   <si>
-    <t xml:space="preserve">B7</t>
+    <t xml:space="preserve">Standard B7</t>
   </si>
   <si>
     <t xml:space="preserve">Use of standards materials and Equipment for Cleaning</t>
@@ -671,7 +671,7 @@
     <t xml:space="preserve">Check the availability of mops, brooms, collection buckets etc. as per requirement. </t>
   </si>
   <si>
-    <t xml:space="preserve">B8</t>
+    <t xml:space="preserve">Standard B8</t>
   </si>
   <si>
     <t xml:space="preserve">Use of Standard Methods for Cleaning</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">Check if brooms are stored in patient care areas. Ask cleaning staff if they use brooms for sweeping in wards, OT, Labour room. Brooms should not be used in patient care areas.</t>
   </si>
   <si>
-    <t xml:space="preserve">B9</t>
+    <t xml:space="preserve">Standard B9</t>
   </si>
   <si>
     <t xml:space="preserve">Monitoring of Cleanliness Activities</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">Check if there is any system of monitoring that adequate concentration of disinfectant solution is used for cleaning. PHC administration take feedback from cleaning staff about efficacy of the solution and take corrective action if required.</t>
   </si>
   <si>
-    <t xml:space="preserve">B10.</t>
+    <t xml:space="preserve">Standard B10.</t>
   </si>
   <si>
     <t xml:space="preserve">Drainage and Sewage Management</t>
@@ -775,13 +775,10 @@
 All the drains are cleaned once in a week</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waste Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1</t>
+    <t xml:space="preserve">Area of Concern – C Waste Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard C1</t>
   </si>
   <si>
     <t xml:space="preserve">Segregation of Biomedical Waste</t>
@@ -818,7 +815,7 @@
     <t xml:space="preserve">Ask staff about the segregation protocol.</t>
   </si>
   <si>
-    <t xml:space="preserve">C2</t>
+    <t xml:space="preserve">Standard C2</t>
   </si>
   <si>
     <t xml:space="preserve">Collection and Transportation of Biomedical Waste</t>
@@ -852,7 +849,7 @@
     <t xml:space="preserve">Check if transportation of waste from clinical areas to storage areas is done in covered trolleys / Bins. Trolleys used for patient shifting should not be used for transportation of waste.</t>
   </si>
   <si>
-    <t xml:space="preserve">C3</t>
+    <t xml:space="preserve">Standard C3</t>
   </si>
   <si>
     <t xml:space="preserve">Sharp Management</t>
@@ -889,7 +886,7 @@
 There should be functional linkage to DH / SDH/ CHC for PEP follow-up and check records of such referrals and follow-up</t>
   </si>
   <si>
-    <t xml:space="preserve">C4</t>
+    <t xml:space="preserve">Standard C4</t>
   </si>
   <si>
     <t xml:space="preserve">Storage of Biomedical Waste</t>
@@ -923,7 +920,7 @@
 Check that the BMW storage is situated away from the main building and is kept under lock and key</t>
   </si>
   <si>
-    <t xml:space="preserve">C5</t>
+    <t xml:space="preserve">Standard C5</t>
   </si>
   <si>
     <t xml:space="preserve">Disposal of Biomedical waste</t>
@@ -961,7 +958,7 @@
 Secured from animals . If waste disposed through CTF, then a deep burial pit is not required.(Give Full Compliance)</t>
   </si>
   <si>
-    <t xml:space="preserve">C6</t>
+    <t xml:space="preserve">Standard C6</t>
   </si>
   <si>
     <t xml:space="preserve">Management Hazardous Waste</t>
@@ -1025,7 +1022,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">C7</t>
+    <t xml:space="preserve">Standard C7</t>
   </si>
   <si>
     <t xml:space="preserve">Solid General Waste Management</t>
@@ -1058,7 +1055,7 @@
     <t xml:space="preserve">Look for efforts of the health facility in managing General Waste, such as Recycling of paper waste, vermicomposting, waste to energy initiative, etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">C8</t>
+    <t xml:space="preserve">Standard C8</t>
   </si>
   <si>
     <t xml:space="preserve">Liquid Waste Management</t>
@@ -1094,7 +1091,7 @@
     <t xml:space="preserve">Check availability of soap &amp; water for patients, who are handing-over Urine samples in the laboratory </t>
   </si>
   <si>
-    <t xml:space="preserve">C9</t>
+    <t xml:space="preserve">Standard C9</t>
   </si>
   <si>
     <t xml:space="preserve">Equipment and Supplies for Bio Medical Waste Management</t>
@@ -1127,7 +1124,7 @@
     <t xml:space="preserve">Check all the bins are provided with chlorine free liners. Ask staff about adequacy of supply.</t>
   </si>
   <si>
-    <t xml:space="preserve">C10</t>
+    <t xml:space="preserve">Standard C10</t>
   </si>
   <si>
     <t xml:space="preserve">Statuary Compliances</t>
@@ -1169,13 +1166,10 @@
 c. Immunisation records of all waste handlers</t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infection Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
+    <t xml:space="preserve">Area of Concern – D Infection Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard D1</t>
   </si>
   <si>
     <t xml:space="preserve">Hand Hygiene</t>
@@ -1208,7 +1202,7 @@
     <t xml:space="preserve">Ask facility staff to demonstrate 6 steps of normal hand wash and 5 moments of hand washing</t>
   </si>
   <si>
-    <t xml:space="preserve">D2</t>
+    <t xml:space="preserve">Standard D2</t>
   </si>
   <si>
     <t xml:space="preserve">Personal Protective Equipment (PPE)</t>
@@ -1241,7 +1235,7 @@
     <t xml:space="preserve">Check, if the housekeeping staff and waste handlers are using heavy duty gloves and gum boots</t>
   </si>
   <si>
-    <t xml:space="preserve">D3</t>
+    <t xml:space="preserve">Standard D3</t>
   </si>
   <si>
     <t xml:space="preserve">Personal Protective Practices</t>
@@ -1274,7 +1268,7 @@
     <t xml:space="preserve">Check that disposable gloves and mask are not re-used. Reusable Gloves and mask are used after adequate sterilization.</t>
   </si>
   <si>
-    <t xml:space="preserve">D4</t>
+    <t xml:space="preserve">Standard D4</t>
   </si>
   <si>
     <t xml:space="preserve">Decontamination and Cleaning of Instruments</t>
@@ -1307,7 +1301,7 @@
     <t xml:space="preserve">Check whether instruments are decontaminated with 0.5% chlorine solution for 10 minutes.  Check instruments are cleaned thoroughly with water and soap before sterilization</t>
   </si>
   <si>
-    <t xml:space="preserve">D5</t>
+    <t xml:space="preserve">Standard D5</t>
   </si>
   <si>
     <t xml:space="preserve">Disinfection &amp; Sterilization of Instruments</t>
@@ -1341,7 +1335,7 @@
     <t xml:space="preserve">Check autoclaving records for use of sterilization indicators (signal Lock)</t>
   </si>
   <si>
-    <t xml:space="preserve">D6</t>
+    <t xml:space="preserve">Standard D6</t>
   </si>
   <si>
     <t xml:space="preserve">Spill Management</t>
@@ -1374,7 +1368,7 @@
     <t xml:space="preserve">Check for display</t>
   </si>
   <si>
-    <t xml:space="preserve">D7</t>
+    <t xml:space="preserve">Standard D7</t>
   </si>
   <si>
     <t xml:space="preserve">Isolation and Barrier Nursing</t>
@@ -1407,7 +1401,7 @@
     <t xml:space="preserve">External foot wear are not allowed in labour room, OT etc.( As Applicable)</t>
   </si>
   <si>
-    <t xml:space="preserve">D8</t>
+    <t xml:space="preserve">Standard D8</t>
   </si>
   <si>
     <t xml:space="preserve">Infection Control Program</t>
@@ -1444,7 +1438,7 @@
 Check for the records and lab investigations of staff</t>
   </si>
   <si>
-    <t xml:space="preserve">D9</t>
+    <t xml:space="preserve">Standard D9</t>
   </si>
   <si>
     <t xml:space="preserve">Hospital Acquired Infection Surveillance</t>
@@ -1478,7 +1472,7 @@
     <t xml:space="preserve">Check, if there is any practice of daily monitoring of infection control practice like hand hygiene and personal protection</t>
   </si>
   <si>
-    <t xml:space="preserve">D10</t>
+    <t xml:space="preserve">Standard D10</t>
   </si>
   <si>
     <t xml:space="preserve">Environment Control</t>
@@ -1511,13 +1505,10 @@
     <t xml:space="preserve">Please check availability and serviceability of exhaust fan in the laboratory</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPPORT SERVICES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1</t>
+    <t xml:space="preserve">Area of Concern – E Support Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard E1</t>
   </si>
   <si>
     <t xml:space="preserve">Laundry Services &amp; Linen Management</t>
@@ -1553,7 +1544,7 @@
     <t xml:space="preserve">Check, if the bedsheets and pillow cover have been changed daily. Please interview the patients as well.</t>
   </si>
   <si>
-    <t xml:space="preserve">E2</t>
+    <t xml:space="preserve">Standard E2</t>
   </si>
   <si>
     <t xml:space="preserve">Water Sanitation</t>
@@ -1589,7 +1580,7 @@
     <t xml:space="preserve">Presence of free chlorine at 0.2 ppm is tested in the samples drawn at the consumer's end.</t>
   </si>
   <si>
-    <t xml:space="preserve">E3</t>
+    <t xml:space="preserve">Standard E3</t>
   </si>
   <si>
     <t xml:space="preserve">Pharmacy and Stores</t>
@@ -1631,7 +1622,7 @@
     <t xml:space="preserve">Check eatables are not kept in ILR/Deep Freezers</t>
   </si>
   <si>
-    <t xml:space="preserve">E4</t>
+    <t xml:space="preserve">Standard E4</t>
   </si>
   <si>
     <t xml:space="preserve">Security Services</t>
@@ -1664,7 +1655,7 @@
     <t xml:space="preserve">Check, if security personnel watch behaviour of patients and their attendants, particularly in respect of hygiene, sanitation, etc. and take appropriate actions, as deemed.</t>
   </si>
   <si>
-    <t xml:space="preserve">E5</t>
+    <t xml:space="preserve">Standard E5</t>
   </si>
   <si>
     <t xml:space="preserve">Outreach Services</t>
@@ -1700,13 +1691,10 @@
     <t xml:space="preserve">Check with medical officers and records of monthly meeting ''Swachh Baharat Abhiyan'' has been followed up during monthly meetings with extension workers like MPW, ASHA, ANM etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hygiene Promotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F1</t>
+    <t xml:space="preserve">Area of Concern – F Hygiene Promotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard F1</t>
   </si>
   <si>
     <t xml:space="preserve">Community Monitoring &amp; Patient Participation</t>
@@ -1743,7 +1731,7 @@
     <t xml:space="preserve">Check if there is a feedback system for the patients. Verify the records</t>
   </si>
   <si>
-    <t xml:space="preserve">F2</t>
+    <t xml:space="preserve">Standard F2</t>
   </si>
   <si>
     <t xml:space="preserve">Information Education and Communication</t>
@@ -1770,7 +1758,7 @@
     <t xml:space="preserve">IEC regarding use of toilets is displayed within PHC premises</t>
   </si>
   <si>
-    <t xml:space="preserve">F3</t>
+    <t xml:space="preserve">Standard F3</t>
   </si>
   <si>
     <t xml:space="preserve">Leadership and Team work</t>
@@ -1803,7 +1791,7 @@
     <t xml:space="preserve">Check about regularity of meetings and monitoring activities regarding cleanliness drive</t>
   </si>
   <si>
-    <t xml:space="preserve">F4</t>
+    <t xml:space="preserve">Standard F4</t>
   </si>
   <si>
     <t xml:space="preserve">Training and Capacity Building and Standardization</t>
@@ -1836,7 +1824,7 @@
     <t xml:space="preserve">Check availability of SOP with respective users</t>
   </si>
   <si>
-    <t xml:space="preserve">F5</t>
+    <t xml:space="preserve">Standard F5</t>
   </si>
   <si>
     <t xml:space="preserve">Staff Hygiene and Dress Code</t>
@@ -1876,7 +1864,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1925,13 +1913,6 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -2036,7 +2017,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2089,10 +2070,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2113,24 +2090,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2150,7 +2115,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2190,19 +2155,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2303,257 +2256,30 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38160</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>795960</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 3" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="570240" y="9725040"/>
-          <a:ext cx="1547640" cy="2952720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228240</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 4" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2929680" y="9711000"/>
-          <a:ext cx="1089360" cy="2940120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>296280</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>347040</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 5" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3172680" y="17904600"/>
-          <a:ext cx="965160" cy="1978200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>474480</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="669240" y="17916480"/>
-          <a:ext cx="1127160" cy="1866960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15120</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1233000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5260680" y="17878320"/>
-          <a:ext cx="1217880" cy="1938240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1493640</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 8" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245560" y="9686880"/>
-          <a:ext cx="1493640" cy="1737720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O210"/>
+  <dimension ref="A1:O208"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.54081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.1938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.4234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.6071428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.01020408163265"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="8.95408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.8979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.95408163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.25"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.8979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.1530612244898"/>
     <col collapsed="false" hidden="true" max="12" min="9" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="25.2091836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="8.71938775510204"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="24.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="8.36224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2586,11 +2312,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -2606,10 +2330,10 @@
     </row>
     <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2628,17 +2352,17 @@
     </row>
     <row r="4" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -2658,17 +2382,17 @@
     </row>
     <row r="5" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -2685,20 +2409,20 @@
     </row>
     <row r="6" customFormat="false" ht="185.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="10" t="n">
         <v>1</v>
       </c>
@@ -2710,17 +2434,17 @@
     </row>
     <row r="7" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="14" t="n">
+      <c r="H7" s="13" t="n">
         <f aca="false">SUM(H8:H10)</f>
         <v>3</v>
       </c>
@@ -2728,21 +2452,21 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="15"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="138" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -2757,17 +2481,17 @@
     </row>
     <row r="9" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -2780,22 +2504,22 @@
       <c r="L9" s="4"/>
       <c r="M9" s="10"/>
       <c r="O9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -2810,10 +2534,10 @@
     </row>
     <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2831,18 +2555,18 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2857,17 +2581,17 @@
     </row>
     <row r="13" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -2882,17 +2606,17 @@
     </row>
     <row r="14" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2906,11 +2630,11 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2929,17 +2653,17 @@
     </row>
     <row r="16" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -2954,17 +2678,17 @@
     </row>
     <row r="17" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -2979,17 +2703,17 @@
     </row>
     <row r="18" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -3003,11 +2727,11 @@
       <c r="M18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3026,17 +2750,17 @@
     </row>
     <row r="20" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -3051,17 +2775,17 @@
     </row>
     <row r="21" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -3074,37 +2798,37 @@
       <c r="L21" s="4"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" s="21" customFormat="true" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
+    <row r="22" s="18" customFormat="true" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="19"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -3123,17 +2847,17 @@
     </row>
     <row r="24" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -3148,17 +2872,17 @@
     </row>
     <row r="25" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -3173,17 +2897,17 @@
     </row>
     <row r="26" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -3197,11 +2921,11 @@
       <c r="M26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -3220,17 +2944,17 @@
     </row>
     <row r="28" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -3245,20 +2969,20 @@
     </row>
     <row r="29" customFormat="false" ht="96.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="10" t="n">
         <v>1</v>
       </c>
@@ -3270,17 +2994,17 @@
     </row>
     <row r="30" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -3295,10 +3019,10 @@
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -3317,17 +3041,17 @@
     </row>
     <row r="32" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -3338,49 +3062,49 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="19"/>
-    </row>
-    <row r="33" s="23" customFormat="true" ht="123.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" customFormat="false" ht="123.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="10" t="n">
         <v>1</v>
       </c>
@@ -3391,11 +3115,11 @@
       <c r="M34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -3414,17 +3138,17 @@
     </row>
     <row r="36" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -3439,17 +3163,17 @@
     </row>
     <row r="37" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -3464,17 +3188,17 @@
     </row>
     <row r="38" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -3489,10 +3213,10 @@
     </row>
     <row r="39" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -3511,17 +3235,17 @@
     </row>
     <row r="40" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -3536,17 +3260,17 @@
     </row>
     <row r="41" customFormat="false" ht="84" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -3561,17 +3285,17 @@
     </row>
     <row r="42" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -3585,11 +3309,9 @@
       <c r="M42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="24" t="s">
-        <v>126</v>
-      </c>
+      <c r="A43" s="20"/>
       <c r="B43" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -3605,10 +3327,10 @@
     </row>
     <row r="44" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -3627,17 +3349,17 @@
     </row>
     <row r="45" customFormat="false" ht="117.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -3652,17 +3374,17 @@
     </row>
     <row r="46" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -3677,17 +3399,17 @@
     </row>
     <row r="47" customFormat="false" ht="98.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -3702,10 +3424,10 @@
     </row>
     <row r="48" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -3724,20 +3446,20 @@
     </row>
     <row r="49" customFormat="false" ht="96" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B49" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="10" t="n">
         <v>1</v>
       </c>
@@ -3749,20 +3471,20 @@
     </row>
     <row r="50" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
       <c r="H50" s="10" t="n">
         <v>1</v>
       </c>
@@ -3774,20 +3496,20 @@
     </row>
     <row r="51" customFormat="false" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
+        <v>145</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
       <c r="H51" s="10" t="n">
         <v>1</v>
       </c>
@@ -3799,10 +3521,10 @@
     </row>
     <row r="52" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -3821,20 +3543,20 @@
     </row>
     <row r="53" customFormat="false" ht="138.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="10" t="n">
         <v>1</v>
       </c>
@@ -3845,21 +3567,21 @@
       <c r="M53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
       <c r="H54" s="10" t="n">
         <v>1</v>
       </c>
@@ -3870,21 +3592,21 @@
       <c r="M54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
+      <c r="A55" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
       <c r="H55" s="10" t="n">
         <v>1</v>
       </c>
@@ -3896,10 +3618,10 @@
     </row>
     <row r="56" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -3918,20 +3640,20 @@
     </row>
     <row r="57" customFormat="false" ht="114" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
       <c r="H57" s="10" t="n">
         <v>1</v>
       </c>
@@ -3943,17 +3665,17 @@
     </row>
     <row r="58" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -3968,20 +3690,20 @@
     </row>
     <row r="59" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="10" t="n">
         <v>1</v>
       </c>
@@ -3993,10 +3715,10 @@
     </row>
     <row r="60" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -4015,17 +3737,17 @@
     </row>
     <row r="61" customFormat="false" ht="127.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
@@ -4040,17 +3762,17 @@
     </row>
     <row r="62" customFormat="false" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -4065,17 +3787,17 @@
     </row>
     <row r="63" customFormat="false" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
@@ -4090,10 +3812,10 @@
     </row>
     <row r="64" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -4112,17 +3834,17 @@
     </row>
     <row r="65" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
@@ -4137,17 +3859,17 @@
     </row>
     <row r="66" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -4162,17 +3884,17 @@
     </row>
     <row r="67" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
@@ -4187,10 +3909,10 @@
     </row>
     <row r="68" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -4209,17 +3931,17 @@
     </row>
     <row r="69" customFormat="false" ht="166.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
@@ -4234,17 +3956,17 @@
     </row>
     <row r="70" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -4259,17 +3981,17 @@
     </row>
     <row r="71" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -4284,10 +4006,10 @@
     </row>
     <row r="72" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -4306,17 +4028,17 @@
     </row>
     <row r="73" customFormat="false" ht="138" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -4331,17 +4053,17 @@
     </row>
     <row r="74" customFormat="false" ht="125.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -4354,37 +4076,37 @@
       <c r="L74" s="4"/>
       <c r="M74" s="10"/>
     </row>
-    <row r="75" s="23" customFormat="true" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="13" t="s">
+    <row r="75" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="19"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="10"/>
     </row>
     <row r="76" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -4403,17 +4125,17 @@
     </row>
     <row r="77" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -4428,17 +4150,17 @@
     </row>
     <row r="78" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -4453,17 +4175,17 @@
     </row>
     <row r="79" customFormat="false" ht="125.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
@@ -4478,10 +4200,10 @@
     </row>
     <row r="80" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -4500,17 +4222,17 @@
     </row>
     <row r="81" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -4523,44 +4245,44 @@
       <c r="L81" s="4"/>
       <c r="M81" s="10"/>
     </row>
-    <row r="82" s="23" customFormat="true" ht="115.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="13" t="s">
+    <row r="82" customFormat="false" ht="115.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B82" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
-      <c r="M82" s="19"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="10"/>
     </row>
     <row r="83" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -4574,11 +4296,9 @@
       <c r="M83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="26" t="s">
-        <v>235</v>
-      </c>
+      <c r="A84" s="22"/>
       <c r="B84" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -4594,10 +4314,10 @@
     </row>
     <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -4614,44 +4334,44 @@
       <c r="L85" s="4"/>
       <c r="M85" s="8"/>
     </row>
-    <row r="86" s="23" customFormat="true" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="19"/>
+    <row r="86" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="10"/>
     </row>
     <row r="87" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
@@ -4666,17 +4386,17 @@
     </row>
     <row r="88" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -4691,10 +4411,10 @@
     </row>
     <row r="89" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -4705,19 +4425,19 @@
         <f aca="false">SUM(H90:H92)</f>
         <v>3</v>
       </c>
-      <c r="I89" s="27" t="n">
+      <c r="I89" s="23" t="n">
         <f aca="false">SUM(I90:I92)</f>
         <v>0</v>
       </c>
-      <c r="J89" s="27" t="n">
+      <c r="J89" s="23" t="n">
         <f aca="false">SUM(J90:J92)</f>
         <v>0</v>
       </c>
-      <c r="K89" s="27" t="n">
+      <c r="K89" s="23" t="n">
         <f aca="false">SUM(K90:K92)</f>
         <v>0</v>
       </c>
-      <c r="L89" s="27" t="n">
+      <c r="L89" s="23" t="n">
         <f aca="false">SUM(L90:L92)</f>
         <v>0</v>
       </c>
@@ -4725,17 +4445,17 @@
     </row>
     <row r="90" customFormat="false" ht="93.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
@@ -4750,17 +4470,17 @@
     </row>
     <row r="91" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -4775,17 +4495,17 @@
     </row>
     <row r="92" customFormat="false" ht="96" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
@@ -4800,10 +4520,10 @@
     </row>
     <row r="93" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -4822,17 +4542,17 @@
     </row>
     <row r="94" customFormat="false" ht="114" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -4847,17 +4567,17 @@
     </row>
     <row r="95" customFormat="false" ht="96" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C95" s="9"/>
-      <c r="D95" s="28" t="s">
-        <v>12</v>
+      <c r="D95" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
@@ -4872,17 +4592,17 @@
     </row>
     <row r="96" customFormat="false" ht="110.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C96" s="9"/>
-      <c r="D96" s="28" t="s">
-        <v>95</v>
+      <c r="D96" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
@@ -4895,69 +4615,69 @@
       <c r="L96" s="4"/>
       <c r="M96" s="10"/>
     </row>
-    <row r="97" s="33" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="B97" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="30" t="n">
+    <row r="97" s="29" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="26" t="n">
         <f aca="false">SUM(H98:H100)</f>
         <v>3</v>
       </c>
-      <c r="I97" s="31"/>
-      <c r="J97" s="31"/>
-      <c r="K97" s="31"/>
-      <c r="L97" s="31"/>
-      <c r="M97" s="32"/>
-    </row>
-    <row r="98" s="23" customFormat="true" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="19"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="27"/>
+      <c r="L97" s="27"/>
+      <c r="M97" s="28"/>
+    </row>
+    <row r="98" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="10"/>
     </row>
     <row r="99" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
       <c r="H99" s="10" t="n">
         <v>1</v>
       </c>
@@ -4967,37 +4687,37 @@
       <c r="L99" s="4"/>
       <c r="M99" s="10"/>
     </row>
-    <row r="100" s="23" customFormat="true" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E100" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" s="20"/>
-      <c r="J100" s="20"/>
-      <c r="K100" s="20"/>
-      <c r="L100" s="20"/>
-      <c r="M100" s="19"/>
+    <row r="100" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="10"/>
     </row>
     <row r="101" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -5016,17 +4736,17 @@
     </row>
     <row r="102" customFormat="false" ht="139.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
@@ -5041,17 +4761,17 @@
     </row>
     <row r="103" customFormat="false" ht="139.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
@@ -5066,20 +4786,20 @@
     </row>
     <row r="104" customFormat="false" ht="169.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
+        <v>214</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
       <c r="H104" s="10" t="n">
         <v>1</v>
       </c>
@@ -5091,10 +4811,10 @@
     </row>
     <row r="105" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -5113,17 +4833,17 @@
     </row>
     <row r="106" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
@@ -5138,17 +4858,17 @@
     </row>
     <row r="107" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
@@ -5163,17 +4883,17 @@
     </row>
     <row r="108" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
@@ -5188,10 +4908,10 @@
     </row>
     <row r="109" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -5210,17 +4930,17 @@
     </row>
     <row r="110" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
@@ -5235,17 +4955,17 @@
     </row>
     <row r="111" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
@@ -5260,17 +4980,17 @@
     </row>
     <row r="112" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
@@ -5285,10 +5005,10 @@
     </row>
     <row r="113" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -5307,17 +5027,17 @@
     </row>
     <row r="114" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -5332,17 +5052,17 @@
     </row>
     <row r="115" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -5357,17 +5077,17 @@
     </row>
     <row r="116" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
@@ -5382,10 +5102,10 @@
     </row>
     <row r="117" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -5404,17 +5124,17 @@
     </row>
     <row r="118" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
@@ -5429,17 +5149,17 @@
     </row>
     <row r="119" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
@@ -5454,17 +5174,17 @@
     </row>
     <row r="120" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
@@ -5481,10 +5201,10 @@
     </row>
     <row r="121" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -5503,17 +5223,17 @@
     </row>
     <row r="122" customFormat="false" ht="86.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
@@ -5528,20 +5248,20 @@
     </row>
     <row r="123" customFormat="false" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
+        <v>341</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
       <c r="H123" s="10" t="n">
         <v>1</v>
       </c>
@@ -5550,22 +5270,22 @@
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="111.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
@@ -5579,11 +5299,9 @@
       <c r="M124" s="10"/>
     </row>
     <row r="125" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="26" t="s">
-        <v>353</v>
-      </c>
+      <c r="A125" s="22"/>
       <c r="B125" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -5599,10 +5317,10 @@
     </row>
     <row r="126" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -5621,17 +5339,17 @@
     </row>
     <row r="127" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
@@ -5646,17 +5364,17 @@
     </row>
     <row r="128" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
@@ -5671,17 +5389,17 @@
     </row>
     <row r="129" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
@@ -5696,10 +5414,10 @@
     </row>
     <row r="130" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -5718,17 +5436,17 @@
     </row>
     <row r="131" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="9" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -5743,17 +5461,17 @@
     </row>
     <row r="132" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="9" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C132" s="9"/>
       <c r="D132" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
@@ -5768,17 +5486,17 @@
     </row>
     <row r="133" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="9" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
@@ -5793,10 +5511,10 @@
     </row>
     <row r="134" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -5813,44 +5531,44 @@
       <c r="L134" s="4"/>
       <c r="M134" s="8"/>
     </row>
-    <row r="135" s="23" customFormat="true" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E135" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" s="20"/>
-      <c r="J135" s="20"/>
-      <c r="K135" s="20"/>
-      <c r="L135" s="20"/>
-      <c r="M135" s="19"/>
+    <row r="135" customFormat="false" ht="78" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="10"/>
     </row>
     <row r="136" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="9" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
@@ -5865,17 +5583,17 @@
     </row>
     <row r="137" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
@@ -5890,10 +5608,10 @@
     </row>
     <row r="138" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -5912,17 +5630,17 @@
     </row>
     <row r="139" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="9" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
@@ -5937,17 +5655,17 @@
     </row>
     <row r="140" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="9" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
@@ -5962,17 +5680,17 @@
     </row>
     <row r="141" customFormat="false" ht="98.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="9" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
@@ -5987,10 +5705,10 @@
     </row>
     <row r="142" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -6009,17 +5727,17 @@
     </row>
     <row r="143" customFormat="false" ht="162" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="9" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
@@ -6034,17 +5752,17 @@
     </row>
     <row r="144" customFormat="false" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
@@ -6059,17 +5777,17 @@
     </row>
     <row r="145" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="9" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
@@ -6084,10 +5802,10 @@
     </row>
     <row r="146" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -6106,17 +5824,17 @@
     </row>
     <row r="147" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
@@ -6131,17 +5849,17 @@
     </row>
     <row r="148" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
@@ -6156,17 +5874,17 @@
     </row>
     <row r="149" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="9" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
@@ -6181,10 +5899,10 @@
     </row>
     <row r="150" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -6203,17 +5921,17 @@
     </row>
     <row r="151" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
@@ -6228,17 +5946,17 @@
     </row>
     <row r="152" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="9" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
@@ -6253,17 +5971,17 @@
     </row>
     <row r="153" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="9" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
@@ -6278,10 +5996,10 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -6300,17 +6018,17 @@
     </row>
     <row r="155" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
@@ -6325,17 +6043,17 @@
     </row>
     <row r="156" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="9" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E156" s="9" t="s">
         <v>436</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>440</v>
       </c>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
@@ -6350,17 +6068,17 @@
     </row>
     <row r="157" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="9" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C157" s="9"/>
       <c r="D157" s="9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
@@ -6375,10 +6093,10 @@
     </row>
     <row r="158" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -6397,17 +6115,17 @@
     </row>
     <row r="159" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="9" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
@@ -6422,17 +6140,17 @@
     </row>
     <row r="160" customFormat="false" ht="123" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="9" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
@@ -6447,17 +6165,17 @@
     </row>
     <row r="161" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="9" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C161" s="9"/>
       <c r="D161" s="9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
@@ -6472,10 +6190,10 @@
     </row>
     <row r="162" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -6492,44 +6210,44 @@
       <c r="L162" s="4"/>
       <c r="M162" s="8"/>
     </row>
-    <row r="163" s="36" customFormat="true" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="B163" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="C163" s="25"/>
-      <c r="D163" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E163" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="F163" s="25"/>
-      <c r="G163" s="25"/>
-      <c r="H163" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" s="35"/>
-      <c r="J163" s="35"/>
-      <c r="K163" s="35"/>
-      <c r="L163" s="35"/>
-      <c r="M163" s="34"/>
+    <row r="163" s="32" customFormat="true" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="B163" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="C163" s="21"/>
+      <c r="D163" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="F163" s="21"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" s="31"/>
+      <c r="J163" s="31"/>
+      <c r="K163" s="31"/>
+      <c r="L163" s="31"/>
+      <c r="M163" s="30"/>
     </row>
     <row r="164" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C164" s="9"/>
       <c r="D164" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
@@ -6544,17 +6262,17 @@
     </row>
     <row r="165" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
@@ -6568,11 +6286,9 @@
       <c r="M165" s="10"/>
     </row>
     <row r="166" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="s">
-        <v>466</v>
-      </c>
+      <c r="A166" s="2"/>
       <c r="B166" s="5" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -6588,10 +6304,10 @@
     </row>
     <row r="167" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -6610,17 +6326,17 @@
     </row>
     <row r="168" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="9" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
@@ -6635,17 +6351,17 @@
     </row>
     <row r="169" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="9" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
@@ -6660,17 +6376,17 @@
     </row>
     <row r="170" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C170" s="9"/>
       <c r="D170" s="9" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
@@ -6685,10 +6401,10 @@
     </row>
     <row r="171" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -6707,20 +6423,20 @@
     </row>
     <row r="172" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="9" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="E172" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="F172" s="13"/>
-      <c r="G172" s="13"/>
+        <v>479</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
       <c r="H172" s="10" t="n">
         <v>1</v>
       </c>
@@ -6732,17 +6448,17 @@
     </row>
     <row r="173" customFormat="false" ht="83.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="9" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
@@ -6757,17 +6473,17 @@
     </row>
     <row r="174" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="9" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C174" s="9"/>
       <c r="D174" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
@@ -6782,10 +6498,10 @@
     </row>
     <row r="175" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -6804,20 +6520,20 @@
     </row>
     <row r="176" customFormat="false" ht="188.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C176" s="9"/>
       <c r="D176" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E176" s="37" t="s">
-        <v>496</v>
-      </c>
-      <c r="F176" s="37"/>
-      <c r="G176" s="37"/>
+        <v>11</v>
+      </c>
+      <c r="E176" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="F176" s="33"/>
+      <c r="G176" s="33"/>
       <c r="H176" s="10" t="n">
         <v>1</v>
       </c>
@@ -6829,17 +6545,17 @@
     </row>
     <row r="177" customFormat="false" ht="129" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="9" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
@@ -6854,17 +6570,17 @@
     </row>
     <row r="178" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="9" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C178" s="9"/>
       <c r="D178" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
@@ -6879,10 +6595,10 @@
     </row>
     <row r="179" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -6901,17 +6617,17 @@
     </row>
     <row r="180" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="9" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C180" s="9"/>
       <c r="D180" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
@@ -6926,17 +6642,17 @@
     </row>
     <row r="181" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="9" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
@@ -6951,17 +6667,17 @@
     </row>
     <row r="182" customFormat="false" ht="110.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="9" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C182" s="9"/>
       <c r="D182" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
@@ -6976,10 +6692,10 @@
     </row>
     <row r="183" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
@@ -6998,17 +6714,17 @@
     </row>
     <row r="184" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="9" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C184" s="9"/>
       <c r="D184" s="9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
@@ -7023,17 +6739,17 @@
     </row>
     <row r="185" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="9" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
@@ -7048,17 +6764,17 @@
     </row>
     <row r="186" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="9" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C186" s="9"/>
       <c r="D186" s="9" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
@@ -7072,11 +6788,9 @@
       <c r="M186" s="10"/>
     </row>
     <row r="187" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2" t="s">
-        <v>526</v>
-      </c>
+      <c r="A187" s="2"/>
       <c r="B187" s="5" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
@@ -7092,10 +6806,10 @@
     </row>
     <row r="188" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
@@ -7114,17 +6828,17 @@
     </row>
     <row r="189" customFormat="false" ht="121.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="9" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C189" s="9"/>
       <c r="D189" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F189" s="9"/>
       <c r="G189" s="9"/>
@@ -7139,17 +6853,17 @@
     </row>
     <row r="190" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="9" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C190" s="9"/>
       <c r="D190" s="9" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F190" s="9"/>
       <c r="G190" s="9"/>
@@ -7164,17 +6878,17 @@
     </row>
     <row r="191" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="9" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C191" s="9"/>
       <c r="D191" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F191" s="9"/>
       <c r="G191" s="9"/>
@@ -7189,10 +6903,10 @@
     </row>
     <row r="192" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
@@ -7211,17 +6925,17 @@
     </row>
     <row r="193" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="9" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C193" s="9"/>
       <c r="D193" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F193" s="9"/>
       <c r="G193" s="9"/>
@@ -7236,17 +6950,17 @@
     </row>
     <row r="194" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="9" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F194" s="9"/>
       <c r="G194" s="9"/>
@@ -7261,17 +6975,17 @@
     </row>
     <row r="195" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="9" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C195" s="9"/>
       <c r="D195" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F195" s="9"/>
       <c r="G195" s="9"/>
@@ -7286,10 +7000,10 @@
     </row>
     <row r="196" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
@@ -7308,17 +7022,17 @@
     </row>
     <row r="197" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="9" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="9" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F197" s="9"/>
       <c r="G197" s="9"/>
@@ -7333,17 +7047,17 @@
     </row>
     <row r="198" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="9" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C198" s="9"/>
       <c r="D198" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F198" s="9"/>
       <c r="G198" s="9"/>
@@ -7358,17 +7072,17 @@
     </row>
     <row r="199" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="9" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F199" s="9"/>
       <c r="G199" s="9"/>
@@ -7383,10 +7097,10 @@
     </row>
     <row r="200" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
@@ -7405,17 +7119,17 @@
     </row>
     <row r="201" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="9" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C201" s="9"/>
       <c r="D201" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F201" s="9"/>
       <c r="G201" s="9"/>
@@ -7430,17 +7144,17 @@
     </row>
     <row r="202" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="9" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C202" s="9"/>
       <c r="D202" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F202" s="9"/>
       <c r="G202" s="9"/>
@@ -7455,17 +7169,17 @@
     </row>
     <row r="203" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="9" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C203" s="9"/>
-      <c r="D203" s="38" t="s">
-        <v>344</v>
+      <c r="D203" s="34" t="s">
+        <v>341</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="F203" s="9"/>
       <c r="G203" s="9"/>
@@ -7480,10 +7194,10 @@
     </row>
     <row r="204" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
@@ -7502,17 +7216,17 @@
     </row>
     <row r="205" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="9" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C205" s="9"/>
       <c r="D205" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F205" s="9"/>
       <c r="G205" s="9"/>
@@ -7527,17 +7241,17 @@
     </row>
     <row r="206" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="9" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C206" s="9"/>
       <c r="D206" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F206" s="9"/>
       <c r="G206" s="9"/>
@@ -7552,17 +7266,17 @@
     </row>
     <row r="207" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="9" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C207" s="9"/>
       <c r="D207" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F207" s="9"/>
       <c r="G207" s="9"/>
@@ -7575,29 +7289,9 @@
       <c r="L207" s="4"/>
       <c r="M207" s="10"/>
     </row>
-    <row r="208" s="23" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="39"/>
-      <c r="B208" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C208" s="39"/>
-      <c r="D208" s="39"/>
-      <c r="E208" s="39"/>
-    </row>
-    <row r="209" s="23" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="39"/>
-      <c r="B209" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C209" s="39"/>
-      <c r="D209" s="39"/>
-      <c r="E209" s="39"/>
-    </row>
-    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="41" t="n">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="358">
     <mergeCell ref="B1:C1"/>
@@ -8002,15 +7696,15 @@
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I4" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2 H4:H6 H8:H10 H12:H14 H16:H18 H20:H22 H24:H26 H28:H30 H32:H34 H36:H38 H40:H43 H45:H47 H49:H51 H53:H55 H57:H59 H61:H63 H65:H67 H69:H71 H73:H75 H77:H79 H81:H84 H86:H88 H90:H92 H94:H96 H98:H100 H102:H104 H106:H108 H110:H112 H114:H116 H118:H120 H122:H125 H127:H129 H131:H133 H135:H137 H139:H141 H143:H145 H147:H149 H151:H153 H155:H157 H159:H161 H163:H166 H168:H170 H172:H174 H176:H178 H180:H182 H184:H187 H189:H191 H193:H195 H197:H199 H201:H203 H205 H207:H210" type="list">
-      <formula1>#REF!</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2 H4:H6 H8:H10 H12:H14 H16:H18 H20:H22 H24:H26 H28:H30 H32:H34 H36:H38 H40:H43 H45:H47 H49:H51 H53:H55 H57:H59 H61:H63 H65:H67 H69:H71 H73:H75 H77:H79 H81:H84 H86:H88 H90:H92 H94:H96 H98:H100 H102:H104 H106:H108 H110:H112 H114:H116 H118:H120 H122:H125 H127:H129 H131:H133 H135:H137 H139:H141 H143:H145 H147:H149 H151:H153 H155:H157 H159:H161 H163:H166 H168:H170 H172:H174 H176:H178 H180:H182 H184:H187 H189:H191 H193:H195 H197:H199 H201:H203 H205 H207" type="list">
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" error="Kindly enter only 0,1 or 2" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H206" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H1 H7 H11 H15 H19 H23 H27 H31 H35 H39 H44 H48 H52 H56 H60 H64 H68 H72 H76 H80 H85 H89 H93 H97 H101 H105 H109 H113 H117 H121 H126 H130 H134 H138 H142 H146 H150 H154 H158 H162 H167 H171 H175 H179 H183 H188 H192 H196 H200 H204" type="none">
@@ -8025,6 +7719,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>